--- a/src/main/resources/xlsx/pcs/prList-3_1.xlsx
+++ b/src/main/resources/xlsx/pcs/prList-3_1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FDCA51-F2E2-4A21-ADB6-EBFC01FBBAAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4815" yWindow="3750" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="党代表名单" sheetId="1" r:id="rId1"/>
@@ -66,23 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表名单
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文中宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（党员大会选举阶段，党委组织部汇总）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期：      年   月   日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,11 +94,28 @@
     <t>工作证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">title
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文中宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（党员大会选举阶段，党委组织部汇总）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -704,11 +705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q272"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -733,7 +734,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -754,7 +755,7 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -781,16 +782,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
@@ -820,10 +821,10 @@
         <v>6</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -849,7 +850,7 @@
     </row>
     <row r="5" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>

--- a/src/main/resources/xlsx/pcs/prList-3_1.xlsx
+++ b/src/main/resources/xlsx/pcs/prList-3_1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FDCA51-F2E2-4A21-ADB6-EBFC01FBBAAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80FB7BC-23BE-4D10-847E-00C29D48CB1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="3750" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="党代表名单" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>性别</t>
   </si>
   <si>
     <t>民族</t>
-  </si>
-  <si>
-    <t>学历</t>
   </si>
   <si>
     <t>入党时间</t>
@@ -109,6 +106,14 @@
       </rPr>
       <t>（党员大会选举阶段，党委组织部汇总）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -258,6 +263,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -334,13 +342,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -388,13 +396,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -706,35 +714,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q272"/>
+  <dimension ref="A1:R272"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="8.25" customWidth="1"/>
     <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
     <col min="9" max="10" width="4.5" customWidth="1"/>
-    <col min="11" max="11" width="5.625" customWidth="1"/>
-    <col min="12" max="12" width="6.125" customWidth="1"/>
-    <col min="13" max="13" width="10.375" customWidth="1"/>
-    <col min="14" max="14" width="9.625" customWidth="1"/>
-    <col min="15" max="15" width="5.875" customWidth="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="11" max="12" width="6.25" customWidth="1"/>
+    <col min="13" max="13" width="6.875" customWidth="1"/>
+    <col min="14" max="14" width="9.375" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="5.875" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -752,10 +760,11 @@
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -773,61 +782,65 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>6</v>
+      <c r="Q3" s="2" t="s">
+        <v>12</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -840,17 +853,18 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
+      <c r="P4" s="5"/>
       <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -868,8 +882,9 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -887,8 +902,9 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-    </row>
-    <row r="7" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -906,8 +922,9 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -925,8 +942,9 @@
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -944,8 +962,9 @@
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-    </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -963,8 +982,9 @@
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-    </row>
-    <row r="11" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -982,8 +1002,9 @@
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-    </row>
-    <row r="12" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1001,8 +1022,9 @@
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-    </row>
-    <row r="13" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1020,8 +1042,9 @@
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-    </row>
-    <row r="14" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1039,8 +1062,9 @@
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-    </row>
-    <row r="15" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -1058,8 +1082,9 @@
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-    </row>
-    <row r="16" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15"/>
+    </row>
+    <row r="16" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1077,8 +1102,9 @@
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-    </row>
-    <row r="17" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16"/>
+    </row>
+    <row r="17" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1096,8 +1122,9 @@
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-    </row>
-    <row r="18" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R17"/>
+    </row>
+    <row r="18" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1115,8 +1142,9 @@
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-    </row>
-    <row r="19" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R18"/>
+    </row>
+    <row r="19" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1134,8 +1162,9 @@
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
-    </row>
-    <row r="20" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R19"/>
+    </row>
+    <row r="20" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1153,8 +1182,9 @@
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
-    </row>
-    <row r="21" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R20"/>
+    </row>
+    <row r="21" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1172,8 +1202,9 @@
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-    </row>
-    <row r="22" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R21"/>
+    </row>
+    <row r="22" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1191,8 +1222,9 @@
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
-    </row>
-    <row r="23" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R22"/>
+    </row>
+    <row r="23" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1210,8 +1242,9 @@
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
-    </row>
-    <row r="24" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R23"/>
+    </row>
+    <row r="24" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1229,8 +1262,9 @@
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
-    </row>
-    <row r="25" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R24"/>
+    </row>
+    <row r="25" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1248,8 +1282,9 @@
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-    </row>
-    <row r="26" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R25"/>
+    </row>
+    <row r="26" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1267,8 +1302,9 @@
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
-    </row>
-    <row r="27" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R26"/>
+    </row>
+    <row r="27" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1286,8 +1322,9 @@
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
-    </row>
-    <row r="28" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R27"/>
+    </row>
+    <row r="28" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1305,8 +1342,9 @@
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
-    </row>
-    <row r="29" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R28"/>
+    </row>
+    <row r="29" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1324,8 +1362,9 @@
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-    </row>
-    <row r="30" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R29"/>
+    </row>
+    <row r="30" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1343,8 +1382,9 @@
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
-    </row>
-    <row r="31" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R30"/>
+    </row>
+    <row r="31" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1362,8 +1402,9 @@
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
-    </row>
-    <row r="32" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R31"/>
+    </row>
+    <row r="32" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -1381,8 +1422,9 @@
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
-    </row>
-    <row r="33" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R32"/>
+    </row>
+    <row r="33" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -1400,8 +1442,9 @@
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-    </row>
-    <row r="34" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R33"/>
+    </row>
+    <row r="34" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -1419,8 +1462,9 @@
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
-    </row>
-    <row r="35" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R34"/>
+    </row>
+    <row r="35" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -1438,8 +1482,9 @@
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
-    </row>
-    <row r="36" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R35"/>
+    </row>
+    <row r="36" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -1457,8 +1502,9 @@
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
-    </row>
-    <row r="37" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R36"/>
+    </row>
+    <row r="37" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -1476,8 +1522,9 @@
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-    </row>
-    <row r="38" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R37"/>
+    </row>
+    <row r="38" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -1495,8 +1542,9 @@
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
-    </row>
-    <row r="39" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R38"/>
+    </row>
+    <row r="39" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -1514,8 +1562,9 @@
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
-    </row>
-    <row r="40" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R39"/>
+    </row>
+    <row r="40" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -1533,8 +1582,9 @@
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-    </row>
-    <row r="41" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R40"/>
+    </row>
+    <row r="41" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -1552,8 +1602,9 @@
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-    </row>
-    <row r="42" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R41"/>
+    </row>
+    <row r="42" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -1571,8 +1622,9 @@
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-    </row>
-    <row r="43" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R42"/>
+    </row>
+    <row r="43" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -1590,8 +1642,9 @@
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
-    </row>
-    <row r="44" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R43"/>
+    </row>
+    <row r="44" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -1609,8 +1662,9 @@
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
-    </row>
-    <row r="45" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R44"/>
+    </row>
+    <row r="45" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -1628,8 +1682,9 @@
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-    </row>
-    <row r="46" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R45"/>
+    </row>
+    <row r="46" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -1647,8 +1702,9 @@
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
-    </row>
-    <row r="47" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R46"/>
+    </row>
+    <row r="47" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -1666,8 +1722,9 @@
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-    </row>
-    <row r="48" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R47"/>
+    </row>
+    <row r="48" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -1685,8 +1742,9 @@
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-    </row>
-    <row r="49" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R48"/>
+    </row>
+    <row r="49" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -1704,8 +1762,9 @@
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-    </row>
-    <row r="50" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R49"/>
+    </row>
+    <row r="50" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -1723,8 +1782,9 @@
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
-    </row>
-    <row r="51" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R50"/>
+    </row>
+    <row r="51" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -1742,8 +1802,9 @@
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
-    </row>
-    <row r="52" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R51"/>
+    </row>
+    <row r="52" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -1761,8 +1822,9 @@
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
-    </row>
-    <row r="53" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R52"/>
+    </row>
+    <row r="53" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -1780,8 +1842,9 @@
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-    </row>
-    <row r="54" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R53"/>
+    </row>
+    <row r="54" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -1799,8 +1862,9 @@
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
-    </row>
-    <row r="55" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R54"/>
+    </row>
+    <row r="55" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -1818,8 +1882,9 @@
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
-    </row>
-    <row r="56" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R55"/>
+    </row>
+    <row r="56" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -1837,8 +1902,9 @@
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
-    </row>
-    <row r="57" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R56"/>
+    </row>
+    <row r="57" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -1856,8 +1922,9 @@
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
-    </row>
-    <row r="58" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R57"/>
+    </row>
+    <row r="58" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -1875,8 +1942,9 @@
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
-    </row>
-    <row r="59" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R58"/>
+    </row>
+    <row r="59" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -1894,8 +1962,9 @@
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
-    </row>
-    <row r="60" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R59"/>
+    </row>
+    <row r="60" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -1913,8 +1982,9 @@
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
-    </row>
-    <row r="61" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R60"/>
+    </row>
+    <row r="61" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -1932,8 +2002,9 @@
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
-    </row>
-    <row r="62" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R61"/>
+    </row>
+    <row r="62" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -1951,8 +2022,9 @@
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
-    </row>
-    <row r="63" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R62"/>
+    </row>
+    <row r="63" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -1970,8 +2042,9 @@
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
-    </row>
-    <row r="64" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R63"/>
+    </row>
+    <row r="64" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -1989,8 +2062,9 @@
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
-    </row>
-    <row r="65" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R64"/>
+    </row>
+    <row r="65" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -2008,8 +2082,9 @@
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
-    </row>
-    <row r="66" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R65"/>
+    </row>
+    <row r="66" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -2027,8 +2102,9 @@
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
-    </row>
-    <row r="67" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R66"/>
+    </row>
+    <row r="67" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -2046,8 +2122,9 @@
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
-    </row>
-    <row r="68" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R67"/>
+    </row>
+    <row r="68" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -2065,8 +2142,9 @@
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
-    </row>
-    <row r="69" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R68"/>
+    </row>
+    <row r="69" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -2084,8 +2162,9 @@
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
-    </row>
-    <row r="70" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R69"/>
+    </row>
+    <row r="70" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -2103,8 +2182,9 @@
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
-    </row>
-    <row r="71" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R70"/>
+    </row>
+    <row r="71" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -2122,8 +2202,9 @@
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
-    </row>
-    <row r="72" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R71"/>
+    </row>
+    <row r="72" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -2141,8 +2222,9 @@
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
-    </row>
-    <row r="73" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R72"/>
+    </row>
+    <row r="73" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -2160,8 +2242,9 @@
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
-    </row>
-    <row r="74" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R73"/>
+    </row>
+    <row r="74" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -2179,8 +2262,9 @@
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
-    </row>
-    <row r="75" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R74"/>
+    </row>
+    <row r="75" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -2198,8 +2282,9 @@
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
-    </row>
-    <row r="76" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R75"/>
+    </row>
+    <row r="76" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -2217,8 +2302,9 @@
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
-    </row>
-    <row r="77" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R76"/>
+    </row>
+    <row r="77" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -2236,8 +2322,9 @@
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-    </row>
-    <row r="78" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R77"/>
+    </row>
+    <row r="78" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -2255,8 +2342,9 @@
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
-    </row>
-    <row r="79" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R78"/>
+    </row>
+    <row r="79" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -2274,8 +2362,9 @@
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
-    </row>
-    <row r="80" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R79"/>
+    </row>
+    <row r="80" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -2293,8 +2382,9 @@
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
-    </row>
-    <row r="81" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R80"/>
+    </row>
+    <row r="81" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -2312,8 +2402,9 @@
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-    </row>
-    <row r="82" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R81"/>
+    </row>
+    <row r="82" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -2331,8 +2422,9 @@
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
-    </row>
-    <row r="83" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R82"/>
+    </row>
+    <row r="83" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -2350,8 +2442,9 @@
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
-    </row>
-    <row r="84" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R83"/>
+    </row>
+    <row r="84" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -2369,8 +2462,9 @@
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
-    </row>
-    <row r="85" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R84"/>
+    </row>
+    <row r="85" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -2388,8 +2482,9 @@
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
-    </row>
-    <row r="86" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R85"/>
+    </row>
+    <row r="86" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -2407,8 +2502,9 @@
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
-    </row>
-    <row r="87" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R86"/>
+    </row>
+    <row r="87" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -2426,8 +2522,9 @@
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
-    </row>
-    <row r="88" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R87"/>
+    </row>
+    <row r="88" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -2445,8 +2542,9 @@
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
-    </row>
-    <row r="89" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R88"/>
+    </row>
+    <row r="89" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -2464,8 +2562,9 @@
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
-    </row>
-    <row r="90" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R89"/>
+    </row>
+    <row r="90" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -2483,8 +2582,9 @@
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
-    </row>
-    <row r="91" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R90"/>
+    </row>
+    <row r="91" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -2502,8 +2602,9 @@
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
-    </row>
-    <row r="92" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R91"/>
+    </row>
+    <row r="92" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -2521,8 +2622,9 @@
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
-    </row>
-    <row r="93" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R92"/>
+    </row>
+    <row r="93" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -2540,8 +2642,9 @@
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
-    </row>
-    <row r="94" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R93"/>
+    </row>
+    <row r="94" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -2559,8 +2662,9 @@
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
-    </row>
-    <row r="95" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R94"/>
+    </row>
+    <row r="95" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -2578,8 +2682,9 @@
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95"/>
-    </row>
-    <row r="96" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R95"/>
+    </row>
+    <row r="96" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -2597,8 +2702,9 @@
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96"/>
-    </row>
-    <row r="97" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R96"/>
+    </row>
+    <row r="97" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -2616,8 +2722,9 @@
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97"/>
-    </row>
-    <row r="98" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R97"/>
+    </row>
+    <row r="98" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -2635,8 +2742,9 @@
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98"/>
-    </row>
-    <row r="99" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R98"/>
+    </row>
+    <row r="99" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -2654,8 +2762,9 @@
       <c r="O99"/>
       <c r="P99"/>
       <c r="Q99"/>
-    </row>
-    <row r="100" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R99"/>
+    </row>
+    <row r="100" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -2673,8 +2782,9 @@
       <c r="O100"/>
       <c r="P100"/>
       <c r="Q100"/>
-    </row>
-    <row r="101" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R100"/>
+    </row>
+    <row r="101" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -2692,8 +2802,9 @@
       <c r="O101"/>
       <c r="P101"/>
       <c r="Q101"/>
-    </row>
-    <row r="102" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R101"/>
+    </row>
+    <row r="102" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -2711,8 +2822,9 @@
       <c r="O102"/>
       <c r="P102"/>
       <c r="Q102"/>
-    </row>
-    <row r="103" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R102"/>
+    </row>
+    <row r="103" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -2730,8 +2842,9 @@
       <c r="O103"/>
       <c r="P103"/>
       <c r="Q103"/>
-    </row>
-    <row r="104" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R103"/>
+    </row>
+    <row r="104" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -2749,8 +2862,9 @@
       <c r="O104"/>
       <c r="P104"/>
       <c r="Q104"/>
-    </row>
-    <row r="105" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R104"/>
+    </row>
+    <row r="105" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -2768,8 +2882,9 @@
       <c r="O105"/>
       <c r="P105"/>
       <c r="Q105"/>
-    </row>
-    <row r="106" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R105"/>
+    </row>
+    <row r="106" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -2787,8 +2902,9 @@
       <c r="O106"/>
       <c r="P106"/>
       <c r="Q106"/>
-    </row>
-    <row r="107" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R106"/>
+    </row>
+    <row r="107" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -2806,8 +2922,9 @@
       <c r="O107"/>
       <c r="P107"/>
       <c r="Q107"/>
-    </row>
-    <row r="108" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R107"/>
+    </row>
+    <row r="108" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -2825,8 +2942,9 @@
       <c r="O108"/>
       <c r="P108"/>
       <c r="Q108"/>
-    </row>
-    <row r="109" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R108"/>
+    </row>
+    <row r="109" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -2844,8 +2962,9 @@
       <c r="O109"/>
       <c r="P109"/>
       <c r="Q109"/>
-    </row>
-    <row r="110" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R109"/>
+    </row>
+    <row r="110" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -2863,8 +2982,9 @@
       <c r="O110"/>
       <c r="P110"/>
       <c r="Q110"/>
-    </row>
-    <row r="111" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R110"/>
+    </row>
+    <row r="111" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -2882,8 +3002,9 @@
       <c r="O111"/>
       <c r="P111"/>
       <c r="Q111"/>
-    </row>
-    <row r="112" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R111"/>
+    </row>
+    <row r="112" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -2901,8 +3022,9 @@
       <c r="O112"/>
       <c r="P112"/>
       <c r="Q112"/>
-    </row>
-    <row r="113" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R112"/>
+    </row>
+    <row r="113" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -2920,8 +3042,9 @@
       <c r="O113"/>
       <c r="P113"/>
       <c r="Q113"/>
-    </row>
-    <row r="114" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R113"/>
+    </row>
+    <row r="114" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -2939,8 +3062,9 @@
       <c r="O114"/>
       <c r="P114"/>
       <c r="Q114"/>
-    </row>
-    <row r="115" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R114"/>
+    </row>
+    <row r="115" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -2958,8 +3082,9 @@
       <c r="O115"/>
       <c r="P115"/>
       <c r="Q115"/>
-    </row>
-    <row r="116" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R115"/>
+    </row>
+    <row r="116" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -2977,8 +3102,9 @@
       <c r="O116"/>
       <c r="P116"/>
       <c r="Q116"/>
-    </row>
-    <row r="117" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R116"/>
+    </row>
+    <row r="117" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -2996,8 +3122,9 @@
       <c r="O117"/>
       <c r="P117"/>
       <c r="Q117"/>
-    </row>
-    <row r="118" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R117"/>
+    </row>
+    <row r="118" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -3015,8 +3142,9 @@
       <c r="O118"/>
       <c r="P118"/>
       <c r="Q118"/>
-    </row>
-    <row r="119" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R118"/>
+    </row>
+    <row r="119" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -3034,8 +3162,9 @@
       <c r="O119"/>
       <c r="P119"/>
       <c r="Q119"/>
-    </row>
-    <row r="120" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R119"/>
+    </row>
+    <row r="120" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -3053,8 +3182,9 @@
       <c r="O120"/>
       <c r="P120"/>
       <c r="Q120"/>
-    </row>
-    <row r="121" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R120"/>
+    </row>
+    <row r="121" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -3072,8 +3202,9 @@
       <c r="O121"/>
       <c r="P121"/>
       <c r="Q121"/>
-    </row>
-    <row r="122" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R121"/>
+    </row>
+    <row r="122" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -3091,8 +3222,9 @@
       <c r="O122"/>
       <c r="P122"/>
       <c r="Q122"/>
-    </row>
-    <row r="123" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R122"/>
+    </row>
+    <row r="123" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -3110,8 +3242,9 @@
       <c r="O123"/>
       <c r="P123"/>
       <c r="Q123"/>
-    </row>
-    <row r="124" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R123"/>
+    </row>
+    <row r="124" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -3129,8 +3262,9 @@
       <c r="O124"/>
       <c r="P124"/>
       <c r="Q124"/>
-    </row>
-    <row r="125" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R124"/>
+    </row>
+    <row r="125" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -3148,8 +3282,9 @@
       <c r="O125"/>
       <c r="P125"/>
       <c r="Q125"/>
-    </row>
-    <row r="126" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R125"/>
+    </row>
+    <row r="126" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -3167,8 +3302,9 @@
       <c r="O126"/>
       <c r="P126"/>
       <c r="Q126"/>
-    </row>
-    <row r="127" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R126"/>
+    </row>
+    <row r="127" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -3186,8 +3322,9 @@
       <c r="O127"/>
       <c r="P127"/>
       <c r="Q127"/>
-    </row>
-    <row r="128" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R127"/>
+    </row>
+    <row r="128" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -3205,8 +3342,9 @@
       <c r="O128"/>
       <c r="P128"/>
       <c r="Q128"/>
-    </row>
-    <row r="129" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R128"/>
+    </row>
+    <row r="129" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -3224,8 +3362,9 @@
       <c r="O129"/>
       <c r="P129"/>
       <c r="Q129"/>
-    </row>
-    <row r="130" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R129"/>
+    </row>
+    <row r="130" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -3243,8 +3382,9 @@
       <c r="O130"/>
       <c r="P130"/>
       <c r="Q130"/>
-    </row>
-    <row r="131" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R130"/>
+    </row>
+    <row r="131" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -3262,8 +3402,9 @@
       <c r="O131"/>
       <c r="P131"/>
       <c r="Q131"/>
-    </row>
-    <row r="132" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R131"/>
+    </row>
+    <row r="132" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -3281,8 +3422,9 @@
       <c r="O132"/>
       <c r="P132"/>
       <c r="Q132"/>
-    </row>
-    <row r="133" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R132"/>
+    </row>
+    <row r="133" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -3300,8 +3442,9 @@
       <c r="O133"/>
       <c r="P133"/>
       <c r="Q133"/>
-    </row>
-    <row r="134" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R133"/>
+    </row>
+    <row r="134" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -3319,8 +3462,9 @@
       <c r="O134"/>
       <c r="P134"/>
       <c r="Q134"/>
-    </row>
-    <row r="135" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R134"/>
+    </row>
+    <row r="135" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -3338,8 +3482,9 @@
       <c r="O135"/>
       <c r="P135"/>
       <c r="Q135"/>
-    </row>
-    <row r="136" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R135"/>
+    </row>
+    <row r="136" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -3357,8 +3502,9 @@
       <c r="O136"/>
       <c r="P136"/>
       <c r="Q136"/>
-    </row>
-    <row r="137" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R136"/>
+    </row>
+    <row r="137" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -3376,8 +3522,9 @@
       <c r="O137"/>
       <c r="P137"/>
       <c r="Q137"/>
-    </row>
-    <row r="138" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R137"/>
+    </row>
+    <row r="138" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -3395,8 +3542,9 @@
       <c r="O138"/>
       <c r="P138"/>
       <c r="Q138"/>
-    </row>
-    <row r="139" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R138"/>
+    </row>
+    <row r="139" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -3414,8 +3562,9 @@
       <c r="O139"/>
       <c r="P139"/>
       <c r="Q139"/>
-    </row>
-    <row r="140" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R139"/>
+    </row>
+    <row r="140" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -3433,8 +3582,9 @@
       <c r="O140"/>
       <c r="P140"/>
       <c r="Q140"/>
-    </row>
-    <row r="141" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R140"/>
+    </row>
+    <row r="141" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -3452,8 +3602,9 @@
       <c r="O141"/>
       <c r="P141"/>
       <c r="Q141"/>
-    </row>
-    <row r="142" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R141"/>
+    </row>
+    <row r="142" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -3471,8 +3622,9 @@
       <c r="O142"/>
       <c r="P142"/>
       <c r="Q142"/>
-    </row>
-    <row r="143" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R142"/>
+    </row>
+    <row r="143" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -3490,8 +3642,9 @@
       <c r="O143"/>
       <c r="P143"/>
       <c r="Q143"/>
-    </row>
-    <row r="144" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R143"/>
+    </row>
+    <row r="144" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -3509,8 +3662,9 @@
       <c r="O144"/>
       <c r="P144"/>
       <c r="Q144"/>
-    </row>
-    <row r="145" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R144"/>
+    </row>
+    <row r="145" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -3528,8 +3682,9 @@
       <c r="O145"/>
       <c r="P145"/>
       <c r="Q145"/>
-    </row>
-    <row r="146" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R145"/>
+    </row>
+    <row r="146" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
@@ -3547,8 +3702,9 @@
       <c r="O146"/>
       <c r="P146"/>
       <c r="Q146"/>
-    </row>
-    <row r="147" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R146"/>
+    </row>
+    <row r="147" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
@@ -3566,8 +3722,9 @@
       <c r="O147"/>
       <c r="P147"/>
       <c r="Q147"/>
-    </row>
-    <row r="148" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R147"/>
+    </row>
+    <row r="148" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
@@ -3585,8 +3742,9 @@
       <c r="O148"/>
       <c r="P148"/>
       <c r="Q148"/>
-    </row>
-    <row r="149" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R148"/>
+    </row>
+    <row r="149" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -3604,8 +3762,9 @@
       <c r="O149"/>
       <c r="P149"/>
       <c r="Q149"/>
-    </row>
-    <row r="150" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R149"/>
+    </row>
+    <row r="150" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
@@ -3623,8 +3782,9 @@
       <c r="O150"/>
       <c r="P150"/>
       <c r="Q150"/>
-    </row>
-    <row r="151" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R150"/>
+    </row>
+    <row r="151" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
@@ -3642,8 +3802,9 @@
       <c r="O151"/>
       <c r="P151"/>
       <c r="Q151"/>
-    </row>
-    <row r="152" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R151"/>
+    </row>
+    <row r="152" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
@@ -3661,8 +3822,9 @@
       <c r="O152"/>
       <c r="P152"/>
       <c r="Q152"/>
-    </row>
-    <row r="153" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R152"/>
+    </row>
+    <row r="153" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
@@ -3680,8 +3842,9 @@
       <c r="O153"/>
       <c r="P153"/>
       <c r="Q153"/>
-    </row>
-    <row r="154" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R153"/>
+    </row>
+    <row r="154" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
@@ -3699,8 +3862,9 @@
       <c r="O154"/>
       <c r="P154"/>
       <c r="Q154"/>
-    </row>
-    <row r="155" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R154"/>
+    </row>
+    <row r="155" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
@@ -3718,8 +3882,9 @@
       <c r="O155"/>
       <c r="P155"/>
       <c r="Q155"/>
-    </row>
-    <row r="156" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R155"/>
+    </row>
+    <row r="156" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
@@ -3737,8 +3902,9 @@
       <c r="O156"/>
       <c r="P156"/>
       <c r="Q156"/>
-    </row>
-    <row r="157" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R156"/>
+    </row>
+    <row r="157" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
@@ -3756,8 +3922,9 @@
       <c r="O157"/>
       <c r="P157"/>
       <c r="Q157"/>
-    </row>
-    <row r="158" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R157"/>
+    </row>
+    <row r="158" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
@@ -3775,8 +3942,9 @@
       <c r="O158"/>
       <c r="P158"/>
       <c r="Q158"/>
-    </row>
-    <row r="159" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R158"/>
+    </row>
+    <row r="159" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
@@ -3794,8 +3962,9 @@
       <c r="O159"/>
       <c r="P159"/>
       <c r="Q159"/>
-    </row>
-    <row r="160" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R159"/>
+    </row>
+    <row r="160" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -3813,8 +3982,9 @@
       <c r="O160"/>
       <c r="P160"/>
       <c r="Q160"/>
-    </row>
-    <row r="161" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R160"/>
+    </row>
+    <row r="161" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
@@ -3832,8 +4002,9 @@
       <c r="O161"/>
       <c r="P161"/>
       <c r="Q161"/>
-    </row>
-    <row r="162" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R161"/>
+    </row>
+    <row r="162" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
@@ -3851,8 +4022,9 @@
       <c r="O162"/>
       <c r="P162"/>
       <c r="Q162"/>
-    </row>
-    <row r="163" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R162"/>
+    </row>
+    <row r="163" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
@@ -3870,8 +4042,9 @@
       <c r="O163"/>
       <c r="P163"/>
       <c r="Q163"/>
-    </row>
-    <row r="164" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R163"/>
+    </row>
+    <row r="164" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
@@ -3889,8 +4062,9 @@
       <c r="O164"/>
       <c r="P164"/>
       <c r="Q164"/>
-    </row>
-    <row r="165" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R164"/>
+    </row>
+    <row r="165" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -3908,8 +4082,9 @@
       <c r="O165"/>
       <c r="P165"/>
       <c r="Q165"/>
-    </row>
-    <row r="166" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R165"/>
+    </row>
+    <row r="166" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
@@ -3927,8 +4102,9 @@
       <c r="O166"/>
       <c r="P166"/>
       <c r="Q166"/>
-    </row>
-    <row r="167" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R166"/>
+    </row>
+    <row r="167" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
@@ -3946,8 +4122,9 @@
       <c r="O167"/>
       <c r="P167"/>
       <c r="Q167"/>
-    </row>
-    <row r="168" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R167"/>
+    </row>
+    <row r="168" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -3965,8 +4142,9 @@
       <c r="O168"/>
       <c r="P168"/>
       <c r="Q168"/>
-    </row>
-    <row r="169" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R168"/>
+    </row>
+    <row r="169" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
@@ -3984,8 +4162,9 @@
       <c r="O169"/>
       <c r="P169"/>
       <c r="Q169"/>
-    </row>
-    <row r="170" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R169"/>
+    </row>
+    <row r="170" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
@@ -4003,8 +4182,9 @@
       <c r="O170"/>
       <c r="P170"/>
       <c r="Q170"/>
-    </row>
-    <row r="171" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R170"/>
+    </row>
+    <row r="171" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
@@ -4022,8 +4202,9 @@
       <c r="O171"/>
       <c r="P171"/>
       <c r="Q171"/>
-    </row>
-    <row r="172" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R171"/>
+    </row>
+    <row r="172" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
@@ -4041,8 +4222,9 @@
       <c r="O172"/>
       <c r="P172"/>
       <c r="Q172"/>
-    </row>
-    <row r="173" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R172"/>
+    </row>
+    <row r="173" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
@@ -4060,8 +4242,9 @@
       <c r="O173"/>
       <c r="P173"/>
       <c r="Q173"/>
-    </row>
-    <row r="174" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R173"/>
+    </row>
+    <row r="174" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -4079,8 +4262,9 @@
       <c r="O174"/>
       <c r="P174"/>
       <c r="Q174"/>
-    </row>
-    <row r="175" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R174"/>
+    </row>
+    <row r="175" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
@@ -4098,8 +4282,9 @@
       <c r="O175"/>
       <c r="P175"/>
       <c r="Q175"/>
-    </row>
-    <row r="176" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R175"/>
+    </row>
+    <row r="176" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
@@ -4117,8 +4302,9 @@
       <c r="O176"/>
       <c r="P176"/>
       <c r="Q176"/>
-    </row>
-    <row r="177" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R176"/>
+    </row>
+    <row r="177" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
@@ -4136,8 +4322,9 @@
       <c r="O177"/>
       <c r="P177"/>
       <c r="Q177"/>
-    </row>
-    <row r="178" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R177"/>
+    </row>
+    <row r="178" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
@@ -4155,8 +4342,9 @@
       <c r="O178"/>
       <c r="P178"/>
       <c r="Q178"/>
-    </row>
-    <row r="179" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R178"/>
+    </row>
+    <row r="179" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
@@ -4174,8 +4362,9 @@
       <c r="O179"/>
       <c r="P179"/>
       <c r="Q179"/>
-    </row>
-    <row r="180" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R179"/>
+    </row>
+    <row r="180" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
@@ -4193,8 +4382,9 @@
       <c r="O180"/>
       <c r="P180"/>
       <c r="Q180"/>
-    </row>
-    <row r="181" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R180"/>
+    </row>
+    <row r="181" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
@@ -4212,8 +4402,9 @@
       <c r="O181"/>
       <c r="P181"/>
       <c r="Q181"/>
-    </row>
-    <row r="182" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R181"/>
+    </row>
+    <row r="182" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
@@ -4231,8 +4422,9 @@
       <c r="O182"/>
       <c r="P182"/>
       <c r="Q182"/>
-    </row>
-    <row r="183" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R182"/>
+    </row>
+    <row r="183" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
@@ -4250,8 +4442,9 @@
       <c r="O183"/>
       <c r="P183"/>
       <c r="Q183"/>
-    </row>
-    <row r="184" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R183"/>
+    </row>
+    <row r="184" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
@@ -4269,8 +4462,9 @@
       <c r="O184"/>
       <c r="P184"/>
       <c r="Q184"/>
-    </row>
-    <row r="185" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R184"/>
+    </row>
+    <row r="185" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
@@ -4288,8 +4482,9 @@
       <c r="O185"/>
       <c r="P185"/>
       <c r="Q185"/>
-    </row>
-    <row r="186" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R185"/>
+    </row>
+    <row r="186" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
@@ -4307,8 +4502,9 @@
       <c r="O186"/>
       <c r="P186"/>
       <c r="Q186"/>
-    </row>
-    <row r="187" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R186"/>
+    </row>
+    <row r="187" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
@@ -4326,8 +4522,9 @@
       <c r="O187"/>
       <c r="P187"/>
       <c r="Q187"/>
-    </row>
-    <row r="188" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R187"/>
+    </row>
+    <row r="188" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
@@ -4345,8 +4542,9 @@
       <c r="O188"/>
       <c r="P188"/>
       <c r="Q188"/>
-    </row>
-    <row r="189" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R188"/>
+    </row>
+    <row r="189" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
@@ -4364,8 +4562,9 @@
       <c r="O189"/>
       <c r="P189"/>
       <c r="Q189"/>
-    </row>
-    <row r="190" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R189"/>
+    </row>
+    <row r="190" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
@@ -4383,8 +4582,9 @@
       <c r="O190"/>
       <c r="P190"/>
       <c r="Q190"/>
-    </row>
-    <row r="191" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R190"/>
+    </row>
+    <row r="191" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -4402,8 +4602,9 @@
       <c r="O191"/>
       <c r="P191"/>
       <c r="Q191"/>
-    </row>
-    <row r="192" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R191"/>
+    </row>
+    <row r="192" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
@@ -4421,8 +4622,9 @@
       <c r="O192"/>
       <c r="P192"/>
       <c r="Q192"/>
-    </row>
-    <row r="193" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R192"/>
+    </row>
+    <row r="193" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
@@ -4440,8 +4642,9 @@
       <c r="O193"/>
       <c r="P193"/>
       <c r="Q193"/>
-    </row>
-    <row r="194" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R193"/>
+    </row>
+    <row r="194" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
@@ -4459,8 +4662,9 @@
       <c r="O194"/>
       <c r="P194"/>
       <c r="Q194"/>
-    </row>
-    <row r="195" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R194"/>
+    </row>
+    <row r="195" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
@@ -4478,8 +4682,9 @@
       <c r="O195"/>
       <c r="P195"/>
       <c r="Q195"/>
-    </row>
-    <row r="196" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R195"/>
+    </row>
+    <row r="196" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
@@ -4497,8 +4702,9 @@
       <c r="O196"/>
       <c r="P196"/>
       <c r="Q196"/>
-    </row>
-    <row r="197" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R196"/>
+    </row>
+    <row r="197" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
@@ -4516,8 +4722,9 @@
       <c r="O197"/>
       <c r="P197"/>
       <c r="Q197"/>
-    </row>
-    <row r="198" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R197"/>
+    </row>
+    <row r="198" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
@@ -4535,8 +4742,9 @@
       <c r="O198"/>
       <c r="P198"/>
       <c r="Q198"/>
-    </row>
-    <row r="199" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R198"/>
+    </row>
+    <row r="199" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
@@ -4554,8 +4762,9 @@
       <c r="O199"/>
       <c r="P199"/>
       <c r="Q199"/>
-    </row>
-    <row r="200" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R199"/>
+    </row>
+    <row r="200" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
@@ -4573,8 +4782,9 @@
       <c r="O200"/>
       <c r="P200"/>
       <c r="Q200"/>
-    </row>
-    <row r="201" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R200"/>
+    </row>
+    <row r="201" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
@@ -4592,8 +4802,9 @@
       <c r="O201"/>
       <c r="P201"/>
       <c r="Q201"/>
-    </row>
-    <row r="202" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R201"/>
+    </row>
+    <row r="202" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
@@ -4611,8 +4822,9 @@
       <c r="O202"/>
       <c r="P202"/>
       <c r="Q202"/>
-    </row>
-    <row r="203" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R202"/>
+    </row>
+    <row r="203" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
@@ -4630,8 +4842,9 @@
       <c r="O203"/>
       <c r="P203"/>
       <c r="Q203"/>
-    </row>
-    <row r="204" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R203"/>
+    </row>
+    <row r="204" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
@@ -4649,8 +4862,9 @@
       <c r="O204"/>
       <c r="P204"/>
       <c r="Q204"/>
-    </row>
-    <row r="205" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R204"/>
+    </row>
+    <row r="205" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
@@ -4668,8 +4882,9 @@
       <c r="O205"/>
       <c r="P205"/>
       <c r="Q205"/>
-    </row>
-    <row r="206" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R205"/>
+    </row>
+    <row r="206" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
@@ -4687,8 +4902,9 @@
       <c r="O206"/>
       <c r="P206"/>
       <c r="Q206"/>
-    </row>
-    <row r="207" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R206"/>
+    </row>
+    <row r="207" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
@@ -4706,8 +4922,9 @@
       <c r="O207"/>
       <c r="P207"/>
       <c r="Q207"/>
-    </row>
-    <row r="208" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R207"/>
+    </row>
+    <row r="208" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
@@ -4725,8 +4942,9 @@
       <c r="O208"/>
       <c r="P208"/>
       <c r="Q208"/>
-    </row>
-    <row r="209" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R208"/>
+    </row>
+    <row r="209" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
@@ -4744,8 +4962,9 @@
       <c r="O209"/>
       <c r="P209"/>
       <c r="Q209"/>
-    </row>
-    <row r="210" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R209"/>
+    </row>
+    <row r="210" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -4763,8 +4982,9 @@
       <c r="O210"/>
       <c r="P210"/>
       <c r="Q210"/>
-    </row>
-    <row r="211" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R210"/>
+    </row>
+    <row r="211" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
@@ -4782,8 +5002,9 @@
       <c r="O211"/>
       <c r="P211"/>
       <c r="Q211"/>
-    </row>
-    <row r="212" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R211"/>
+    </row>
+    <row r="212" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
@@ -4801,8 +5022,9 @@
       <c r="O212"/>
       <c r="P212"/>
       <c r="Q212"/>
-    </row>
-    <row r="213" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R212"/>
+    </row>
+    <row r="213" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -4820,8 +5042,9 @@
       <c r="O213"/>
       <c r="P213"/>
       <c r="Q213"/>
-    </row>
-    <row r="214" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R213"/>
+    </row>
+    <row r="214" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
@@ -4839,8 +5062,9 @@
       <c r="O214"/>
       <c r="P214"/>
       <c r="Q214"/>
-    </row>
-    <row r="215" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R214"/>
+    </row>
+    <row r="215" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
@@ -4858,8 +5082,9 @@
       <c r="O215"/>
       <c r="P215"/>
       <c r="Q215"/>
-    </row>
-    <row r="216" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R215"/>
+    </row>
+    <row r="216" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -4877,8 +5102,9 @@
       <c r="O216"/>
       <c r="P216"/>
       <c r="Q216"/>
-    </row>
-    <row r="217" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R216"/>
+    </row>
+    <row r="217" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
@@ -4896,8 +5122,9 @@
       <c r="O217"/>
       <c r="P217"/>
       <c r="Q217"/>
-    </row>
-    <row r="218" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R217"/>
+    </row>
+    <row r="218" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
@@ -4915,8 +5142,9 @@
       <c r="O218"/>
       <c r="P218"/>
       <c r="Q218"/>
-    </row>
-    <row r="219" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R218"/>
+    </row>
+    <row r="219" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
@@ -4934,8 +5162,9 @@
       <c r="O219"/>
       <c r="P219"/>
       <c r="Q219"/>
-    </row>
-    <row r="220" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R219"/>
+    </row>
+    <row r="220" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
@@ -4953,8 +5182,9 @@
       <c r="O220"/>
       <c r="P220"/>
       <c r="Q220"/>
-    </row>
-    <row r="221" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R220"/>
+    </row>
+    <row r="221" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -4972,8 +5202,9 @@
       <c r="O221"/>
       <c r="P221"/>
       <c r="Q221"/>
-    </row>
-    <row r="222" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R221"/>
+    </row>
+    <row r="222" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -4991,8 +5222,9 @@
       <c r="O222"/>
       <c r="P222"/>
       <c r="Q222"/>
-    </row>
-    <row r="223" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R222"/>
+    </row>
+    <row r="223" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -5010,8 +5242,9 @@
       <c r="O223"/>
       <c r="P223"/>
       <c r="Q223"/>
-    </row>
-    <row r="224" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R223"/>
+    </row>
+    <row r="224" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
@@ -5029,8 +5262,9 @@
       <c r="O224"/>
       <c r="P224"/>
       <c r="Q224"/>
-    </row>
-    <row r="225" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R224"/>
+    </row>
+    <row r="225" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
@@ -5048,8 +5282,9 @@
       <c r="O225"/>
       <c r="P225"/>
       <c r="Q225"/>
-    </row>
-    <row r="226" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R225"/>
+    </row>
+    <row r="226" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
@@ -5067,8 +5302,9 @@
       <c r="O226"/>
       <c r="P226"/>
       <c r="Q226"/>
-    </row>
-    <row r="227" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R226"/>
+    </row>
+    <row r="227" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
@@ -5086,8 +5322,9 @@
       <c r="O227"/>
       <c r="P227"/>
       <c r="Q227"/>
-    </row>
-    <row r="228" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R227"/>
+    </row>
+    <row r="228" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
@@ -5105,8 +5342,9 @@
       <c r="O228"/>
       <c r="P228"/>
       <c r="Q228"/>
-    </row>
-    <row r="229" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R228"/>
+    </row>
+    <row r="229" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
@@ -5124,8 +5362,9 @@
       <c r="O229"/>
       <c r="P229"/>
       <c r="Q229"/>
-    </row>
-    <row r="230" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R229"/>
+    </row>
+    <row r="230" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
@@ -5143,8 +5382,9 @@
       <c r="O230"/>
       <c r="P230"/>
       <c r="Q230"/>
-    </row>
-    <row r="231" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R230"/>
+    </row>
+    <row r="231" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
@@ -5162,8 +5402,9 @@
       <c r="O231"/>
       <c r="P231"/>
       <c r="Q231"/>
-    </row>
-    <row r="232" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R231"/>
+    </row>
+    <row r="232" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
@@ -5181,8 +5422,9 @@
       <c r="O232"/>
       <c r="P232"/>
       <c r="Q232"/>
-    </row>
-    <row r="233" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R232"/>
+    </row>
+    <row r="233" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
@@ -5200,8 +5442,9 @@
       <c r="O233"/>
       <c r="P233"/>
       <c r="Q233"/>
-    </row>
-    <row r="234" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R233"/>
+    </row>
+    <row r="234" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
@@ -5219,8 +5462,9 @@
       <c r="O234"/>
       <c r="P234"/>
       <c r="Q234"/>
-    </row>
-    <row r="235" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R234"/>
+    </row>
+    <row r="235" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
@@ -5238,8 +5482,9 @@
       <c r="O235"/>
       <c r="P235"/>
       <c r="Q235"/>
-    </row>
-    <row r="236" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R235"/>
+    </row>
+    <row r="236" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
@@ -5257,8 +5502,9 @@
       <c r="O236"/>
       <c r="P236"/>
       <c r="Q236"/>
-    </row>
-    <row r="237" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R236"/>
+    </row>
+    <row r="237" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
@@ -5276,8 +5522,9 @@
       <c r="O237"/>
       <c r="P237"/>
       <c r="Q237"/>
-    </row>
-    <row r="238" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R237"/>
+    </row>
+    <row r="238" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
@@ -5295,8 +5542,9 @@
       <c r="O238"/>
       <c r="P238"/>
       <c r="Q238"/>
-    </row>
-    <row r="239" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R238"/>
+    </row>
+    <row r="239" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
@@ -5314,8 +5562,9 @@
       <c r="O239"/>
       <c r="P239"/>
       <c r="Q239"/>
-    </row>
-    <row r="240" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R239"/>
+    </row>
+    <row r="240" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
@@ -5333,8 +5582,9 @@
       <c r="O240"/>
       <c r="P240"/>
       <c r="Q240"/>
-    </row>
-    <row r="241" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R240"/>
+    </row>
+    <row r="241" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
@@ -5352,8 +5602,9 @@
       <c r="O241"/>
       <c r="P241"/>
       <c r="Q241"/>
-    </row>
-    <row r="242" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R241"/>
+    </row>
+    <row r="242" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
@@ -5371,8 +5622,9 @@
       <c r="O242"/>
       <c r="P242"/>
       <c r="Q242"/>
-    </row>
-    <row r="243" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R242"/>
+    </row>
+    <row r="243" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
@@ -5390,8 +5642,9 @@
       <c r="O243"/>
       <c r="P243"/>
       <c r="Q243"/>
-    </row>
-    <row r="244" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R243"/>
+    </row>
+    <row r="244" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
@@ -5409,8 +5662,9 @@
       <c r="O244"/>
       <c r="P244"/>
       <c r="Q244"/>
-    </row>
-    <row r="245" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R244"/>
+    </row>
+    <row r="245" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
@@ -5428,8 +5682,9 @@
       <c r="O245"/>
       <c r="P245"/>
       <c r="Q245"/>
-    </row>
-    <row r="246" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R245"/>
+    </row>
+    <row r="246" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
@@ -5447,8 +5702,9 @@
       <c r="O246"/>
       <c r="P246"/>
       <c r="Q246"/>
-    </row>
-    <row r="247" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R246"/>
+    </row>
+    <row r="247" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
@@ -5466,8 +5722,9 @@
       <c r="O247"/>
       <c r="P247"/>
       <c r="Q247"/>
-    </row>
-    <row r="248" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R247"/>
+    </row>
+    <row r="248" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
@@ -5485,8 +5742,9 @@
       <c r="O248"/>
       <c r="P248"/>
       <c r="Q248"/>
-    </row>
-    <row r="249" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R248"/>
+    </row>
+    <row r="249" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
@@ -5504,8 +5762,9 @@
       <c r="O249"/>
       <c r="P249"/>
       <c r="Q249"/>
-    </row>
-    <row r="250" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R249"/>
+    </row>
+    <row r="250" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
@@ -5523,8 +5782,9 @@
       <c r="O250"/>
       <c r="P250"/>
       <c r="Q250"/>
-    </row>
-    <row r="251" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R250"/>
+    </row>
+    <row r="251" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
@@ -5542,8 +5802,9 @@
       <c r="O251"/>
       <c r="P251"/>
       <c r="Q251"/>
-    </row>
-    <row r="252" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R251"/>
+    </row>
+    <row r="252" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
@@ -5561,8 +5822,9 @@
       <c r="O252"/>
       <c r="P252"/>
       <c r="Q252"/>
-    </row>
-    <row r="253" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R252"/>
+    </row>
+    <row r="253" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
@@ -5580,8 +5842,9 @@
       <c r="O253"/>
       <c r="P253"/>
       <c r="Q253"/>
-    </row>
-    <row r="254" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R253"/>
+    </row>
+    <row r="254" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
@@ -5599,8 +5862,9 @@
       <c r="O254"/>
       <c r="P254"/>
       <c r="Q254"/>
-    </row>
-    <row r="255" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R254"/>
+    </row>
+    <row r="255" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
@@ -5618,8 +5882,9 @@
       <c r="O255"/>
       <c r="P255"/>
       <c r="Q255"/>
-    </row>
-    <row r="256" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R255"/>
+    </row>
+    <row r="256" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
@@ -5637,8 +5902,9 @@
       <c r="O256"/>
       <c r="P256"/>
       <c r="Q256"/>
-    </row>
-    <row r="257" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R256"/>
+    </row>
+    <row r="257" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
@@ -5656,8 +5922,9 @@
       <c r="O257"/>
       <c r="P257"/>
       <c r="Q257"/>
-    </row>
-    <row r="258" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R257"/>
+    </row>
+    <row r="258" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
@@ -5675,8 +5942,9 @@
       <c r="O258"/>
       <c r="P258"/>
       <c r="Q258"/>
-    </row>
-    <row r="259" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R258"/>
+    </row>
+    <row r="259" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
@@ -5694,8 +5962,9 @@
       <c r="O259"/>
       <c r="P259"/>
       <c r="Q259"/>
-    </row>
-    <row r="260" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R259"/>
+    </row>
+    <row r="260" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
@@ -5713,8 +5982,9 @@
       <c r="O260"/>
       <c r="P260"/>
       <c r="Q260"/>
-    </row>
-    <row r="261" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R260"/>
+    </row>
+    <row r="261" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
@@ -5732,8 +6002,9 @@
       <c r="O261"/>
       <c r="P261"/>
       <c r="Q261"/>
-    </row>
-    <row r="262" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R261"/>
+    </row>
+    <row r="262" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
@@ -5751,8 +6022,9 @@
       <c r="O262"/>
       <c r="P262"/>
       <c r="Q262"/>
-    </row>
-    <row r="263" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R262"/>
+    </row>
+    <row r="263" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
@@ -5770,8 +6042,9 @@
       <c r="O263"/>
       <c r="P263"/>
       <c r="Q263"/>
-    </row>
-    <row r="264" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R263"/>
+    </row>
+    <row r="264" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
@@ -5789,8 +6062,9 @@
       <c r="O264"/>
       <c r="P264"/>
       <c r="Q264"/>
-    </row>
-    <row r="265" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R264"/>
+    </row>
+    <row r="265" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
@@ -5808,8 +6082,9 @@
       <c r="O265"/>
       <c r="P265"/>
       <c r="Q265"/>
-    </row>
-    <row r="266" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R265"/>
+    </row>
+    <row r="266" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
@@ -5827,8 +6102,9 @@
       <c r="O266"/>
       <c r="P266"/>
       <c r="Q266"/>
-    </row>
-    <row r="267" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R266"/>
+    </row>
+    <row r="267" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
@@ -5846,8 +6122,9 @@
       <c r="O267"/>
       <c r="P267"/>
       <c r="Q267"/>
-    </row>
-    <row r="268" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R267"/>
+    </row>
+    <row r="268" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
@@ -5865,8 +6142,9 @@
       <c r="O268"/>
       <c r="P268"/>
       <c r="Q268"/>
-    </row>
-    <row r="269" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R268"/>
+    </row>
+    <row r="269" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
@@ -5884,8 +6162,9 @@
       <c r="O269"/>
       <c r="P269"/>
       <c r="Q269"/>
-    </row>
-    <row r="270" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R269"/>
+    </row>
+    <row r="270" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
@@ -5903,8 +6182,9 @@
       <c r="O270"/>
       <c r="P270"/>
       <c r="Q270"/>
-    </row>
-    <row r="271" spans="1:17" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R270"/>
+    </row>
+    <row r="271" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
@@ -5922,8 +6202,9 @@
       <c r="O271"/>
       <c r="P271"/>
       <c r="Q271"/>
-    </row>
-    <row r="272" spans="1:17" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R271"/>
+    </row>
+    <row r="272" spans="1:18" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
@@ -5941,12 +6222,13 @@
       <c r="O272"/>
       <c r="P272"/>
       <c r="Q272"/>
+      <c r="R272"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/pcs/prList-3_1.xlsx
+++ b/src/main/resources/xlsx/pcs/prList-3_1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80FB7BC-23BE-4D10-847E-00C29D48CB1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="党代表名单" sheetId="1" r:id="rId1"/>
@@ -32,9 +31,6 @@
   </si>
   <si>
     <t>入党时间</t>
-  </si>
-  <si>
-    <t>职别</t>
   </si>
   <si>
     <t>职务</t>
@@ -116,11 +112,15 @@
     <t>学位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>职称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,6 +255,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -263,9 +266,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,11 +713,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R272"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -741,103 +741,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>18</v>
+      <c r="A1" s="9" t="s">
+        <v>17</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>15</v>
+      <c r="A2" s="10" t="s">
+        <v>14</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -853,8 +853,8 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -863,26 +863,26 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
+      <c r="A5" s="8" t="s">
+        <v>10</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
